--- a/data/trans_camb/IP28_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP28_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 1,89</t>
+          <t>-5,77; 1,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 3,37</t>
+          <t>-5,15; 3,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 3,29</t>
+          <t>-5,38; 3,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 5,99</t>
+          <t>-2,18; 6,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 4,53</t>
+          <t>-3,56; 5,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 0,0</t>
+          <t>-6,39; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,67</t>
+          <t>-2,89; 3,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,47</t>
+          <t>-3,4; 2,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,25</t>
+          <t>-3,81; 1,33</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-77,71; 196,97</t>
+          <t>-75,9; 272,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 316,83</t>
+          <t>-100,0; 306,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,99</t>
+          <t>-0,62; 2,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,12</t>
+          <t>-1,19; 1,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,93</t>
+          <t>-1,23; 1,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,3</t>
+          <t>-0,87; 2,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,67</t>
+          <t>-1,56; 0,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,82</t>
+          <t>-1,03; 1,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,75</t>
+          <t>-0,25; 1,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,7</t>
+          <t>-1,06; 0,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,03</t>
+          <t>-0,83; 0,95</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,06; 287,03</t>
+          <t>-42,24; 333,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,98; 186,34</t>
+          <t>-71,98; 197,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,7; 166,15</t>
+          <t>-74,12; 180,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,65; 258,64</t>
+          <t>-49,98; 258,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,2; 94,2</t>
+          <t>-75,98; 122,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,44; 233,0</t>
+          <t>-59,42; 234,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 213,48</t>
+          <t>-21,92; 189,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,73; 81,46</t>
+          <t>-61,1; 70,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,35; 140,26</t>
+          <t>-49,63; 114,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,02</t>
+          <t>-0,41; 3,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,74</t>
+          <t>-1,27; 0,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,73</t>
+          <t>-0,82; 1,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,1</t>
+          <t>-1,42; 2,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,73</t>
+          <t>-1,56; 1,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,66</t>
+          <t>-1,2; 2,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,03</t>
+          <t>-0,58; 1,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,82</t>
+          <t>-1,03; 1,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,67</t>
+          <t>-0,79; 1,56</t>
         </is>
       </c>
     </row>
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-83,37; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,51</t>
+          <t>-0,52; 1,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,72</t>
+          <t>-1,12; 0,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,74</t>
+          <t>-1,09; 0,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,83</t>
+          <t>-0,41; 1,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,67</t>
+          <t>-1,37; 0,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,31</t>
+          <t>-0,89; 1,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,39</t>
+          <t>-0,18; 1,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,35</t>
+          <t>-0,99; 0,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,71</t>
+          <t>-0,72; 0,71</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,01; 201,16</t>
+          <t>-33,18; 226,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-69,88; 104,31</t>
+          <t>-68,7; 96,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-65,57; 101,88</t>
+          <t>-64,58; 114,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 214,28</t>
+          <t>-27,47; 231,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-70,57; 99,14</t>
+          <t>-69,76; 74,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-55,9; 162,74</t>
+          <t>-52,64; 167,17</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 153,48</t>
+          <t>-13,35; 140,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 40,2</t>
+          <t>-59,45; 38,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-47,44; 79,16</t>
+          <t>-45,85; 75,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP28_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP28_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 5,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; 4,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,74; 1,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,49; 3,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,37; 3,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 2,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 1,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 1,19</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,83%</t>
         </is>
       </c>
     </row>
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,63; 236,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 165,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 217,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 1,84</t>
+          <t>-0,8; 2,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 3,72</t>
+          <t>-1,68; 0,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 3,45</t>
+          <t>-1,12; 1,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 6,12</t>
+          <t>-0,62; 2,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 5,03</t>
+          <t>-1,22; 0,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 0,0</t>
+          <t>-1,29; 1,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 3,12</t>
+          <t>-0,24; 1,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,82</t>
+          <t>-0,98; 0,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 1,33</t>
+          <t>-0,73; 1,03</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-48,51%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-31,98%</t>
+          <t>-29,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-33,41%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>56,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,97%</t>
+          <t>-6,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-11,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-25,25%</t>
+          <t>-18,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-54,37%</t>
+          <t>5,86%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,77; 251,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,17; 119,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,35; 273,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,76; 356,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,12; 174,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,94; 195,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-75,9; 272,09</t>
+          <t>-17,02; 201,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 306,38</t>
+          <t>-58,85; 78,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,85; 120,47</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,16</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,03</t>
+          <t>-1,2; 2,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,13</t>
+          <t>-1,54; 1,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,0</t>
+          <t>-1,27; 2,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,32</t>
+          <t>-0,41; 3,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,77</t>
+          <t>-1,26; 0,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,82</t>
+          <t>-0,82; 1,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,71</t>
+          <t>-0,55; 2,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,56</t>
+          <t>-1,05; 1,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,95</t>
+          <t>-0,92; 1,43</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>56,56%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,05%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>50,85%</t>
+          <t>216,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-29,03%</t>
+          <t>-9,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>84,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-18,12%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>25,36%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,24; 333,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,98; 197,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,12; 180,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,98; 258,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,98; 122,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,42; 234,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 189,56</t>
+          <t>-73,36; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,1; 70,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,63; 114,05</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,01</t>
+          <t>-0,39; 1,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,75</t>
+          <t>-1,28; 0,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,82</t>
+          <t>-0,9; 1,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,41</t>
+          <t>-0,59; 1,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,75</t>
+          <t>-1,06; 0,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,67</t>
+          <t>-1,11; 0,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,94</t>
+          <t>-0,19; 1,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,03</t>
+          <t>-0,91; 0,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,56</t>
+          <t>-0,86; 0,66</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>216,18%</t>
+          <t>53,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,16%</t>
+          <t>-23,6%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>-19,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>43,9%</t>
+          <t>-20,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>84,12%</t>
+          <t>43,94%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-21,31%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>-6,0%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,36; 223,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,93; 81,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,03; 168,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,21; 185,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,43; 96,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,28; 95,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,28; 151,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,61; 46,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,87; 75,9</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 1,48</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 0,68</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 0,72</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 1,92</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 0,52</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 1,36</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 1,34</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 0,33</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 0,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>34,55%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-18,93%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-19,48%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>53,31%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-23,6%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>12,13%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>43,95%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-21,27%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-4,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-33,18; 226,04</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-68,7; 96,66</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-64,58; 114,04</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-27,47; 231,41</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-69,76; 74,28</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-52,64; 167,17</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-13,35; 140,8</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-59,45; 38,83</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-45,85; 75,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
